--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_245.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_245.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32308-d76774-Reviews-Embassy_Suites_by_Hilton_Hotel_Los_Angeles_Downey-Downey_California.html</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>972</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Embassy-Suites-By-Hilton.h1969.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_245.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_245.xlsx
@@ -12006,7 +12006,7 @@
         <v>9503</v>
       </c>
       <c r="B2" t="n">
-        <v>144891</v>
+        <v>176180</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -12071,7 +12071,7 @@
         <v>9503</v>
       </c>
       <c r="B3" t="n">
-        <v>144892</v>
+        <v>176181</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -12217,7 +12217,7 @@
         <v>9503</v>
       </c>
       <c r="B5" t="n">
-        <v>144893</v>
+        <v>176182</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -12284,7 +12284,7 @@
         <v>9503</v>
       </c>
       <c r="B6" t="n">
-        <v>144894</v>
+        <v>176183</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -12355,7 +12355,7 @@
         <v>9503</v>
       </c>
       <c r="B7" t="n">
-        <v>144895</v>
+        <v>176184</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -12422,7 +12422,7 @@
         <v>9503</v>
       </c>
       <c r="B8" t="n">
-        <v>144896</v>
+        <v>176185</v>
       </c>
       <c r="C8" t="s">
         <v>99</v>
@@ -12615,7 +12615,7 @@
         <v>9503</v>
       </c>
       <c r="B11" t="n">
-        <v>144897</v>
+        <v>176186</v>
       </c>
       <c r="C11" t="s">
         <v>122</v>
@@ -12816,7 +12816,7 @@
         <v>9503</v>
       </c>
       <c r="B14" t="n">
-        <v>144898</v>
+        <v>176187</v>
       </c>
       <c r="C14" t="s">
         <v>145</v>
@@ -12887,7 +12887,7 @@
         <v>9503</v>
       </c>
       <c r="B15" t="n">
-        <v>144899</v>
+        <v>176188</v>
       </c>
       <c r="C15" t="s">
         <v>152</v>
@@ -12958,7 +12958,7 @@
         <v>9503</v>
       </c>
       <c r="B16" t="n">
-        <v>144900</v>
+        <v>176189</v>
       </c>
       <c r="C16" t="s">
         <v>158</v>
@@ -13019,7 +13019,7 @@
         <v>9503</v>
       </c>
       <c r="B17" t="n">
-        <v>144901</v>
+        <v>176190</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -13090,7 +13090,7 @@
         <v>9503</v>
       </c>
       <c r="B18" t="n">
-        <v>144902</v>
+        <v>176191</v>
       </c>
       <c r="C18" t="s">
         <v>173</v>
@@ -13165,7 +13165,7 @@
         <v>9503</v>
       </c>
       <c r="B19" t="n">
-        <v>144903</v>
+        <v>176192</v>
       </c>
       <c r="C19" t="s">
         <v>183</v>
@@ -13236,7 +13236,7 @@
         <v>9503</v>
       </c>
       <c r="B20" t="n">
-        <v>144904</v>
+        <v>176193</v>
       </c>
       <c r="C20" t="s">
         <v>189</v>
@@ -13307,7 +13307,7 @@
         <v>9503</v>
       </c>
       <c r="B21" t="n">
-        <v>144905</v>
+        <v>176194</v>
       </c>
       <c r="C21" t="s">
         <v>196</v>
@@ -13382,7 +13382,7 @@
         <v>9503</v>
       </c>
       <c r="B22" t="n">
-        <v>144906</v>
+        <v>176195</v>
       </c>
       <c r="C22" t="s">
         <v>205</v>
@@ -13457,7 +13457,7 @@
         <v>9503</v>
       </c>
       <c r="B23" t="n">
-        <v>144907</v>
+        <v>176196</v>
       </c>
       <c r="C23" t="s">
         <v>213</v>
@@ -13532,7 +13532,7 @@
         <v>9503</v>
       </c>
       <c r="B24" t="n">
-        <v>144908</v>
+        <v>176197</v>
       </c>
       <c r="C24" t="s">
         <v>222</v>
@@ -13603,7 +13603,7 @@
         <v>9503</v>
       </c>
       <c r="B25" t="n">
-        <v>144909</v>
+        <v>176198</v>
       </c>
       <c r="C25" t="s">
         <v>231</v>
@@ -13678,7 +13678,7 @@
         <v>9503</v>
       </c>
       <c r="B26" t="n">
-        <v>144910</v>
+        <v>176199</v>
       </c>
       <c r="C26" t="s">
         <v>237</v>
@@ -13749,7 +13749,7 @@
         <v>9503</v>
       </c>
       <c r="B27" t="n">
-        <v>144911</v>
+        <v>176200</v>
       </c>
       <c r="C27" t="s">
         <v>244</v>
@@ -13885,7 +13885,7 @@
         <v>9503</v>
       </c>
       <c r="B29" t="n">
-        <v>144912</v>
+        <v>176201</v>
       </c>
       <c r="C29" t="s">
         <v>260</v>
@@ -13956,7 +13956,7 @@
         <v>9503</v>
       </c>
       <c r="B30" t="n">
-        <v>144913</v>
+        <v>176202</v>
       </c>
       <c r="C30" t="s">
         <v>267</v>
@@ -14031,7 +14031,7 @@
         <v>9503</v>
       </c>
       <c r="B31" t="n">
-        <v>144914</v>
+        <v>176203</v>
       </c>
       <c r="C31" t="s">
         <v>276</v>
@@ -14106,7 +14106,7 @@
         <v>9503</v>
       </c>
       <c r="B32" t="n">
-        <v>144915</v>
+        <v>176204</v>
       </c>
       <c r="C32" t="s">
         <v>283</v>
@@ -14309,7 +14309,7 @@
         <v>9503</v>
       </c>
       <c r="B35" t="n">
-        <v>144916</v>
+        <v>176205</v>
       </c>
       <c r="C35" t="s">
         <v>303</v>
@@ -14384,7 +14384,7 @@
         <v>9503</v>
       </c>
       <c r="B36" t="n">
-        <v>144917</v>
+        <v>176206</v>
       </c>
       <c r="C36" t="s">
         <v>312</v>
@@ -14459,7 +14459,7 @@
         <v>9503</v>
       </c>
       <c r="B37" t="n">
-        <v>144918</v>
+        <v>176207</v>
       </c>
       <c r="C37" t="s">
         <v>321</v>
@@ -14524,7 +14524,7 @@
         <v>9503</v>
       </c>
       <c r="B38" t="n">
-        <v>144919</v>
+        <v>176208</v>
       </c>
       <c r="C38" t="s">
         <v>328</v>
@@ -14585,7 +14585,7 @@
         <v>9503</v>
       </c>
       <c r="B39" t="n">
-        <v>144920</v>
+        <v>176209</v>
       </c>
       <c r="C39" t="s">
         <v>335</v>
@@ -14656,7 +14656,7 @@
         <v>9503</v>
       </c>
       <c r="B40" t="n">
-        <v>144921</v>
+        <v>176210</v>
       </c>
       <c r="C40" t="s">
         <v>341</v>
@@ -14727,7 +14727,7 @@
         <v>9503</v>
       </c>
       <c r="B41" t="n">
-        <v>144922</v>
+        <v>176211</v>
       </c>
       <c r="C41" t="s">
         <v>347</v>
@@ -14798,7 +14798,7 @@
         <v>9503</v>
       </c>
       <c r="B42" t="n">
-        <v>144923</v>
+        <v>176212</v>
       </c>
       <c r="C42" t="s">
         <v>353</v>
@@ -14869,7 +14869,7 @@
         <v>9503</v>
       </c>
       <c r="B43" t="n">
-        <v>144924</v>
+        <v>176213</v>
       </c>
       <c r="C43" t="s">
         <v>359</v>
@@ -14944,7 +14944,7 @@
         <v>9503</v>
       </c>
       <c r="B44" t="n">
-        <v>144925</v>
+        <v>176214</v>
       </c>
       <c r="C44" t="s">
         <v>368</v>
@@ -15015,7 +15015,7 @@
         <v>9503</v>
       </c>
       <c r="B45" t="n">
-        <v>144926</v>
+        <v>176215</v>
       </c>
       <c r="C45" t="s">
         <v>374</v>
@@ -15086,7 +15086,7 @@
         <v>9503</v>
       </c>
       <c r="B46" t="n">
-        <v>144927</v>
+        <v>176216</v>
       </c>
       <c r="C46" t="s">
         <v>380</v>
@@ -15301,7 +15301,7 @@
         <v>9503</v>
       </c>
       <c r="B49" t="n">
-        <v>144928</v>
+        <v>144905</v>
       </c>
       <c r="C49" t="s">
         <v>405</v>
@@ -15372,7 +15372,7 @@
         <v>9503</v>
       </c>
       <c r="B50" t="n">
-        <v>144929</v>
+        <v>176217</v>
       </c>
       <c r="C50" t="s">
         <v>411</v>
@@ -15443,7 +15443,7 @@
         <v>9503</v>
       </c>
       <c r="B51" t="n">
-        <v>144930</v>
+        <v>176218</v>
       </c>
       <c r="C51" t="s">
         <v>417</v>
@@ -15514,7 +15514,7 @@
         <v>9503</v>
       </c>
       <c r="B52" t="n">
-        <v>144931</v>
+        <v>176219</v>
       </c>
       <c r="C52" t="s">
         <v>423</v>
@@ -15579,7 +15579,7 @@
         <v>9503</v>
       </c>
       <c r="B53" t="n">
-        <v>144932</v>
+        <v>176220</v>
       </c>
       <c r="C53" t="s">
         <v>430</v>
@@ -15650,7 +15650,7 @@
         <v>9503</v>
       </c>
       <c r="B54" t="n">
-        <v>144933</v>
+        <v>176221</v>
       </c>
       <c r="C54" t="s">
         <v>437</v>
@@ -15707,7 +15707,7 @@
         <v>9503</v>
       </c>
       <c r="B55" t="n">
-        <v>144934</v>
+        <v>176222</v>
       </c>
       <c r="C55" t="s">
         <v>444</v>
@@ -15778,7 +15778,7 @@
         <v>9503</v>
       </c>
       <c r="B56" t="n">
-        <v>144935</v>
+        <v>176223</v>
       </c>
       <c r="C56" t="s">
         <v>450</v>
@@ -15843,7 +15843,7 @@
         <v>9503</v>
       </c>
       <c r="B57" t="n">
-        <v>144936</v>
+        <v>176224</v>
       </c>
       <c r="C57" t="s">
         <v>460</v>
@@ -16127,7 +16127,7 @@
         <v>9503</v>
       </c>
       <c r="B61" t="n">
-        <v>144937</v>
+        <v>176225</v>
       </c>
       <c r="C61" t="s">
         <v>486</v>
@@ -16273,7 +16273,7 @@
         <v>9503</v>
       </c>
       <c r="B63" t="n">
-        <v>144938</v>
+        <v>176226</v>
       </c>
       <c r="C63" t="s">
         <v>501</v>
@@ -16342,7 +16342,7 @@
         <v>9503</v>
       </c>
       <c r="B64" t="n">
-        <v>144939</v>
+        <v>176227</v>
       </c>
       <c r="C64" t="s">
         <v>510</v>
@@ -16474,7 +16474,7 @@
         <v>9503</v>
       </c>
       <c r="B66" t="n">
-        <v>144940</v>
+        <v>176228</v>
       </c>
       <c r="C66" t="s">
         <v>523</v>
@@ -16545,7 +16545,7 @@
         <v>9503</v>
       </c>
       <c r="B67" t="n">
-        <v>144941</v>
+        <v>176229</v>
       </c>
       <c r="C67" t="s">
         <v>529</v>
@@ -16616,7 +16616,7 @@
         <v>9503</v>
       </c>
       <c r="B68" t="n">
-        <v>144942</v>
+        <v>176230</v>
       </c>
       <c r="C68" t="s">
         <v>535</v>
@@ -16687,7 +16687,7 @@
         <v>9503</v>
       </c>
       <c r="B69" t="n">
-        <v>144943</v>
+        <v>176231</v>
       </c>
       <c r="C69" t="s">
         <v>542</v>
@@ -16758,7 +16758,7 @@
         <v>9503</v>
       </c>
       <c r="B70" t="n">
-        <v>144944</v>
+        <v>176232</v>
       </c>
       <c r="C70" t="s">
         <v>547</v>
@@ -16829,7 +16829,7 @@
         <v>9503</v>
       </c>
       <c r="B71" t="n">
-        <v>144945</v>
+        <v>176233</v>
       </c>
       <c r="C71" t="s">
         <v>553</v>
@@ -16900,7 +16900,7 @@
         <v>9503</v>
       </c>
       <c r="B72" t="n">
-        <v>144946</v>
+        <v>176234</v>
       </c>
       <c r="C72" t="s">
         <v>559</v>
@@ -16971,7 +16971,7 @@
         <v>9503</v>
       </c>
       <c r="B73" t="n">
-        <v>144947</v>
+        <v>176235</v>
       </c>
       <c r="C73" t="s">
         <v>564</v>
@@ -17113,7 +17113,7 @@
         <v>9503</v>
       </c>
       <c r="B75" t="n">
-        <v>144949</v>
+        <v>176236</v>
       </c>
       <c r="C75" t="s">
         <v>578</v>
@@ -17188,7 +17188,7 @@
         <v>9503</v>
       </c>
       <c r="B76" t="n">
-        <v>144950</v>
+        <v>176237</v>
       </c>
       <c r="C76" t="s">
         <v>588</v>
@@ -17253,7 +17253,7 @@
         <v>9503</v>
       </c>
       <c r="B77" t="n">
-        <v>144951</v>
+        <v>176238</v>
       </c>
       <c r="C77" t="s">
         <v>595</v>
@@ -17324,7 +17324,7 @@
         <v>9503</v>
       </c>
       <c r="B78" t="n">
-        <v>144952</v>
+        <v>176239</v>
       </c>
       <c r="C78" t="s">
         <v>601</v>
@@ -17395,7 +17395,7 @@
         <v>9503</v>
       </c>
       <c r="B79" t="n">
-        <v>144927</v>
+        <v>144905</v>
       </c>
       <c r="C79" t="s">
         <v>405</v>
@@ -17466,7 +17466,7 @@
         <v>9503</v>
       </c>
       <c r="B80" t="n">
-        <v>144953</v>
+        <v>176240</v>
       </c>
       <c r="C80" t="s">
         <v>610</v>
@@ -17527,7 +17527,7 @@
         <v>9503</v>
       </c>
       <c r="B81" t="n">
-        <v>144954</v>
+        <v>176241</v>
       </c>
       <c r="C81" t="s">
         <v>617</v>
@@ -17598,7 +17598,7 @@
         <v>9503</v>
       </c>
       <c r="B82" t="n">
-        <v>144955</v>
+        <v>176242</v>
       </c>
       <c r="C82" t="s">
         <v>622</v>
@@ -17667,7 +17667,7 @@
         <v>9503</v>
       </c>
       <c r="B83" t="n">
-        <v>144956</v>
+        <v>176243</v>
       </c>
       <c r="C83" t="s">
         <v>631</v>
@@ -17732,7 +17732,7 @@
         <v>9503</v>
       </c>
       <c r="B84" t="n">
-        <v>144957</v>
+        <v>176244</v>
       </c>
       <c r="C84" t="s">
         <v>638</v>
@@ -17807,7 +17807,7 @@
         <v>9503</v>
       </c>
       <c r="B85" t="n">
-        <v>144958</v>
+        <v>176245</v>
       </c>
       <c r="C85" t="s">
         <v>646</v>
@@ -17878,7 +17878,7 @@
         <v>9503</v>
       </c>
       <c r="B86" t="n">
-        <v>144959</v>
+        <v>176246</v>
       </c>
       <c r="C86" t="s">
         <v>653</v>
@@ -17953,7 +17953,7 @@
         <v>9503</v>
       </c>
       <c r="B87" t="n">
-        <v>144960</v>
+        <v>176247</v>
       </c>
       <c r="C87" t="s">
         <v>662</v>
@@ -18028,7 +18028,7 @@
         <v>9503</v>
       </c>
       <c r="B88" t="n">
-        <v>144961</v>
+        <v>176248</v>
       </c>
       <c r="C88" t="s">
         <v>671</v>
@@ -18103,7 +18103,7 @@
         <v>9503</v>
       </c>
       <c r="B89" t="n">
-        <v>144962</v>
+        <v>176249</v>
       </c>
       <c r="C89" t="s">
         <v>677</v>
@@ -18174,7 +18174,7 @@
         <v>9503</v>
       </c>
       <c r="B90" t="n">
-        <v>144963</v>
+        <v>176250</v>
       </c>
       <c r="C90" t="s">
         <v>683</v>
@@ -18316,7 +18316,7 @@
         <v>9503</v>
       </c>
       <c r="B92" t="n">
-        <v>144964</v>
+        <v>176251</v>
       </c>
       <c r="C92" t="s">
         <v>693</v>
@@ -18391,7 +18391,7 @@
         <v>9503</v>
       </c>
       <c r="B93" t="n">
-        <v>144965</v>
+        <v>176252</v>
       </c>
       <c r="C93" t="s">
         <v>702</v>
@@ -18462,7 +18462,7 @@
         <v>9503</v>
       </c>
       <c r="B94" t="n">
-        <v>144966</v>
+        <v>176253</v>
       </c>
       <c r="C94" t="s">
         <v>711</v>
@@ -18608,7 +18608,7 @@
         <v>9503</v>
       </c>
       <c r="B96" t="n">
-        <v>144967</v>
+        <v>176254</v>
       </c>
       <c r="C96" t="s">
         <v>726</v>
@@ -18683,7 +18683,7 @@
         <v>9503</v>
       </c>
       <c r="B97" t="n">
-        <v>144968</v>
+        <v>176255</v>
       </c>
       <c r="C97" t="s">
         <v>735</v>
@@ -18758,7 +18758,7 @@
         <v>9503</v>
       </c>
       <c r="B98" t="n">
-        <v>144969</v>
+        <v>176256</v>
       </c>
       <c r="C98" t="s">
         <v>743</v>
@@ -18831,7 +18831,7 @@
         <v>9503</v>
       </c>
       <c r="B99" t="n">
-        <v>144970</v>
+        <v>176257</v>
       </c>
       <c r="C99" t="s">
         <v>752</v>
@@ -18906,7 +18906,7 @@
         <v>9503</v>
       </c>
       <c r="B100" t="n">
-        <v>144971</v>
+        <v>176258</v>
       </c>
       <c r="C100" t="s">
         <v>761</v>
@@ -19056,7 +19056,7 @@
         <v>9503</v>
       </c>
       <c r="B102" t="n">
-        <v>144972</v>
+        <v>176259</v>
       </c>
       <c r="C102" t="s">
         <v>779</v>
@@ -19196,7 +19196,7 @@
         <v>9503</v>
       </c>
       <c r="B104" t="n">
-        <v>144973</v>
+        <v>176260</v>
       </c>
       <c r="C104" t="s">
         <v>796</v>
@@ -19344,7 +19344,7 @@
         <v>9503</v>
       </c>
       <c r="B106" t="n">
-        <v>144974</v>
+        <v>176261</v>
       </c>
       <c r="C106" t="s">
         <v>812</v>
@@ -19419,7 +19419,7 @@
         <v>9503</v>
       </c>
       <c r="B107" t="n">
-        <v>144975</v>
+        <v>176262</v>
       </c>
       <c r="C107" t="s">
         <v>820</v>
@@ -19490,7 +19490,7 @@
         <v>9503</v>
       </c>
       <c r="B108" t="n">
-        <v>144976</v>
+        <v>176263</v>
       </c>
       <c r="C108" t="s">
         <v>827</v>
@@ -19555,7 +19555,7 @@
         <v>9503</v>
       </c>
       <c r="B109" t="n">
-        <v>144977</v>
+        <v>176264</v>
       </c>
       <c r="C109" t="s">
         <v>833</v>
@@ -19624,7 +19624,7 @@
         <v>9503</v>
       </c>
       <c r="B110" t="n">
-        <v>144978</v>
+        <v>176265</v>
       </c>
       <c r="C110" t="s">
         <v>838</v>
@@ -19695,7 +19695,7 @@
         <v>9503</v>
       </c>
       <c r="B111" t="n">
-        <v>144979</v>
+        <v>176266</v>
       </c>
       <c r="C111" t="s">
         <v>844</v>
@@ -19766,7 +19766,7 @@
         <v>9503</v>
       </c>
       <c r="B112" t="n">
-        <v>144980</v>
+        <v>176267</v>
       </c>
       <c r="C112" t="s">
         <v>851</v>
@@ -19837,7 +19837,7 @@
         <v>9503</v>
       </c>
       <c r="B113" t="n">
-        <v>144981</v>
+        <v>176268</v>
       </c>
       <c r="C113" t="s">
         <v>858</v>
@@ -19898,7 +19898,7 @@
         <v>9503</v>
       </c>
       <c r="B114" t="n">
-        <v>144982</v>
+        <v>176269</v>
       </c>
       <c r="C114" t="s">
         <v>864</v>
@@ -20040,7 +20040,7 @@
         <v>9503</v>
       </c>
       <c r="B116" t="n">
-        <v>144983</v>
+        <v>176270</v>
       </c>
       <c r="C116" t="s">
         <v>875</v>
@@ -20111,7 +20111,7 @@
         <v>9503</v>
       </c>
       <c r="B117" t="n">
-        <v>144984</v>
+        <v>176271</v>
       </c>
       <c r="C117" t="s">
         <v>881</v>
@@ -20182,7 +20182,7 @@
         <v>9503</v>
       </c>
       <c r="B118" t="n">
-        <v>144985</v>
+        <v>176272</v>
       </c>
       <c r="C118" t="s">
         <v>887</v>
@@ -20324,7 +20324,7 @@
         <v>9503</v>
       </c>
       <c r="B120" t="n">
-        <v>144986</v>
+        <v>176273</v>
       </c>
       <c r="C120" t="s">
         <v>902</v>
@@ -20385,7 +20385,7 @@
         <v>9503</v>
       </c>
       <c r="B121" t="n">
-        <v>144987</v>
+        <v>176274</v>
       </c>
       <c r="C121" t="s">
         <v>907</v>
@@ -20456,7 +20456,7 @@
         <v>9503</v>
       </c>
       <c r="B122" t="n">
-        <v>144988</v>
+        <v>176275</v>
       </c>
       <c r="C122" t="s">
         <v>913</v>
@@ -20598,7 +20598,7 @@
         <v>9503</v>
       </c>
       <c r="B124" t="n">
-        <v>144989</v>
+        <v>176276</v>
       </c>
       <c r="C124" t="s">
         <v>926</v>
@@ -20740,7 +20740,7 @@
         <v>9503</v>
       </c>
       <c r="B126" t="n">
-        <v>144990</v>
+        <v>176277</v>
       </c>
       <c r="C126" t="s">
         <v>941</v>
@@ -20815,7 +20815,7 @@
         <v>9503</v>
       </c>
       <c r="B127" t="n">
-        <v>144991</v>
+        <v>176278</v>
       </c>
       <c r="C127" t="s">
         <v>948</v>
@@ -20961,7 +20961,7 @@
         <v>9503</v>
       </c>
       <c r="B129" t="n">
-        <v>144992</v>
+        <v>176279</v>
       </c>
       <c r="C129" t="s">
         <v>963</v>
@@ -21032,7 +21032,7 @@
         <v>9503</v>
       </c>
       <c r="B130" t="n">
-        <v>144993</v>
+        <v>176280</v>
       </c>
       <c r="C130" t="s">
         <v>968</v>
@@ -21107,7 +21107,7 @@
         <v>9503</v>
       </c>
       <c r="B131" t="n">
-        <v>144994</v>
+        <v>176281</v>
       </c>
       <c r="C131" t="s">
         <v>977</v>
@@ -21320,7 +21320,7 @@
         <v>9503</v>
       </c>
       <c r="B134" t="n">
-        <v>144995</v>
+        <v>176282</v>
       </c>
       <c r="C134" t="s">
         <v>996</v>
@@ -21391,7 +21391,7 @@
         <v>9503</v>
       </c>
       <c r="B135" t="n">
-        <v>144996</v>
+        <v>176283</v>
       </c>
       <c r="C135" t="s">
         <v>1001</v>
@@ -21462,7 +21462,7 @@
         <v>9503</v>
       </c>
       <c r="B136" t="n">
-        <v>144997</v>
+        <v>176284</v>
       </c>
       <c r="C136" t="s">
         <v>1007</v>
@@ -21533,7 +21533,7 @@
         <v>9503</v>
       </c>
       <c r="B137" t="n">
-        <v>144998</v>
+        <v>176285</v>
       </c>
       <c r="C137" t="s">
         <v>1013</v>
@@ -21754,7 +21754,7 @@
         <v>9503</v>
       </c>
       <c r="B140" t="n">
-        <v>144999</v>
+        <v>176286</v>
       </c>
       <c r="C140" t="s">
         <v>1034</v>
@@ -21825,7 +21825,7 @@
         <v>9503</v>
       </c>
       <c r="B141" t="n">
-        <v>145000</v>
+        <v>176287</v>
       </c>
       <c r="C141" t="s">
         <v>1041</v>
@@ -21896,7 +21896,7 @@
         <v>9503</v>
       </c>
       <c r="B142" t="n">
-        <v>145001</v>
+        <v>176288</v>
       </c>
       <c r="C142" t="s">
         <v>1047</v>
@@ -21967,7 +21967,7 @@
         <v>9503</v>
       </c>
       <c r="B143" t="n">
-        <v>145002</v>
+        <v>176289</v>
       </c>
       <c r="C143" t="s">
         <v>1052</v>
@@ -22117,7 +22117,7 @@
         <v>9503</v>
       </c>
       <c r="B145" t="n">
-        <v>145003</v>
+        <v>176290</v>
       </c>
       <c r="C145" t="s">
         <v>1067</v>
@@ -22174,7 +22174,7 @@
         <v>9503</v>
       </c>
       <c r="B146" t="n">
-        <v>145004</v>
+        <v>176291</v>
       </c>
       <c r="C146" t="s">
         <v>1073</v>
@@ -22312,7 +22312,7 @@
         <v>9503</v>
       </c>
       <c r="B148" t="n">
-        <v>145005</v>
+        <v>176292</v>
       </c>
       <c r="C148" t="s">
         <v>1084</v>
@@ -22373,7 +22373,7 @@
         <v>9503</v>
       </c>
       <c r="B149" t="n">
-        <v>145006</v>
+        <v>176293</v>
       </c>
       <c r="C149" t="s">
         <v>1092</v>
@@ -22515,7 +22515,7 @@
         <v>9503</v>
       </c>
       <c r="B151" t="n">
-        <v>145007</v>
+        <v>176294</v>
       </c>
       <c r="C151" t="s">
         <v>1103</v>
@@ -22576,7 +22576,7 @@
         <v>9503</v>
       </c>
       <c r="B152" t="n">
-        <v>145008</v>
+        <v>176295</v>
       </c>
       <c r="C152" t="s">
         <v>1109</v>
@@ -22647,7 +22647,7 @@
         <v>9503</v>
       </c>
       <c r="B153" t="n">
-        <v>145009</v>
+        <v>144941</v>
       </c>
       <c r="C153" t="s">
         <v>1115</v>
@@ -22789,7 +22789,7 @@
         <v>9503</v>
       </c>
       <c r="B155" t="n">
-        <v>145010</v>
+        <v>176296</v>
       </c>
       <c r="C155" t="s">
         <v>1130</v>
@@ -22860,7 +22860,7 @@
         <v>9503</v>
       </c>
       <c r="B156" t="n">
-        <v>145011</v>
+        <v>176297</v>
       </c>
       <c r="C156" t="s">
         <v>1136</v>
@@ -22931,7 +22931,7 @@
         <v>9503</v>
       </c>
       <c r="B157" t="n">
-        <v>145012</v>
+        <v>176298</v>
       </c>
       <c r="C157" t="s">
         <v>1145</v>
@@ -22992,7 +22992,7 @@
         <v>9503</v>
       </c>
       <c r="B158" t="n">
-        <v>145013</v>
+        <v>176299</v>
       </c>
       <c r="C158" t="s">
         <v>1151</v>
@@ -23067,7 +23067,7 @@
         <v>9503</v>
       </c>
       <c r="B159" t="n">
-        <v>145014</v>
+        <v>176300</v>
       </c>
       <c r="C159" t="s">
         <v>1160</v>
@@ -23138,7 +23138,7 @@
         <v>9503</v>
       </c>
       <c r="B160" t="n">
-        <v>145015</v>
+        <v>176301</v>
       </c>
       <c r="C160" t="s">
         <v>1165</v>
@@ -23203,7 +23203,7 @@
         <v>9503</v>
       </c>
       <c r="B161" t="n">
-        <v>145016</v>
+        <v>176302</v>
       </c>
       <c r="C161" t="s">
         <v>1171</v>
@@ -23347,7 +23347,7 @@
         <v>9503</v>
       </c>
       <c r="B163" t="n">
-        <v>145017</v>
+        <v>176303</v>
       </c>
       <c r="C163" t="s">
         <v>1186</v>
@@ -23418,7 +23418,7 @@
         <v>9503</v>
       </c>
       <c r="B164" t="n">
-        <v>145018</v>
+        <v>176304</v>
       </c>
       <c r="C164" t="s">
         <v>1192</v>
@@ -23489,7 +23489,7 @@
         <v>9503</v>
       </c>
       <c r="B165" t="n">
-        <v>145019</v>
+        <v>176305</v>
       </c>
       <c r="C165" t="s">
         <v>1198</v>
@@ -23631,7 +23631,7 @@
         <v>9503</v>
       </c>
       <c r="B167" t="n">
-        <v>145020</v>
+        <v>176306</v>
       </c>
       <c r="C167" t="s">
         <v>1209</v>
@@ -23696,7 +23696,7 @@
         <v>9503</v>
       </c>
       <c r="B168" t="n">
-        <v>145021</v>
+        <v>176307</v>
       </c>
       <c r="C168" t="s">
         <v>1216</v>
@@ -23761,7 +23761,7 @@
         <v>9503</v>
       </c>
       <c r="B169" t="n">
-        <v>145022</v>
+        <v>176308</v>
       </c>
       <c r="C169" t="s">
         <v>1222</v>
@@ -23822,7 +23822,7 @@
         <v>9503</v>
       </c>
       <c r="B170" t="n">
-        <v>145023</v>
+        <v>176309</v>
       </c>
       <c r="C170" t="s">
         <v>1228</v>
@@ -23883,7 +23883,7 @@
         <v>9503</v>
       </c>
       <c r="B171" t="n">
-        <v>145024</v>
+        <v>176310</v>
       </c>
       <c r="C171" t="s">
         <v>1234</v>
@@ -24033,7 +24033,7 @@
         <v>9503</v>
       </c>
       <c r="B173" t="n">
-        <v>145025</v>
+        <v>176311</v>
       </c>
       <c r="C173" t="s">
         <v>1251</v>
@@ -24175,7 +24175,7 @@
         <v>9503</v>
       </c>
       <c r="B175" t="n">
-        <v>145026</v>
+        <v>176312</v>
       </c>
       <c r="C175" t="s">
         <v>1266</v>
@@ -24246,7 +24246,7 @@
         <v>9503</v>
       </c>
       <c r="B176" t="n">
-        <v>145027</v>
+        <v>176313</v>
       </c>
       <c r="C176" t="s">
         <v>1272</v>
@@ -24388,7 +24388,7 @@
         <v>9503</v>
       </c>
       <c r="B178" t="n">
-        <v>145028</v>
+        <v>176314</v>
       </c>
       <c r="C178" t="s">
         <v>1282</v>
@@ -24530,7 +24530,7 @@
         <v>9503</v>
       </c>
       <c r="B180" t="n">
-        <v>145029</v>
+        <v>176315</v>
       </c>
       <c r="C180" t="s">
         <v>1294</v>
@@ -24601,7 +24601,7 @@
         <v>9503</v>
       </c>
       <c r="B181" t="n">
-        <v>145030</v>
+        <v>176316</v>
       </c>
       <c r="C181" t="s">
         <v>1299</v>
@@ -24814,7 +24814,7 @@
         <v>9503</v>
       </c>
       <c r="B184" t="n">
-        <v>145031</v>
+        <v>176317</v>
       </c>
       <c r="C184" t="s">
         <v>1317</v>
@@ -25017,7 +25017,7 @@
         <v>9503</v>
       </c>
       <c r="B187" t="n">
-        <v>145032</v>
+        <v>176318</v>
       </c>
       <c r="C187" t="s">
         <v>1335</v>
@@ -25135,7 +25135,7 @@
         <v>9503</v>
       </c>
       <c r="B189" t="n">
-        <v>145033</v>
+        <v>176319</v>
       </c>
       <c r="C189" t="s">
         <v>1347</v>
@@ -25206,7 +25206,7 @@
         <v>9503</v>
       </c>
       <c r="B190" t="n">
-        <v>145034</v>
+        <v>176320</v>
       </c>
       <c r="C190" t="s">
         <v>1353</v>
@@ -25267,7 +25267,7 @@
         <v>9503</v>
       </c>
       <c r="B191" t="n">
-        <v>145035</v>
+        <v>176321</v>
       </c>
       <c r="C191" t="s">
         <v>1360</v>
@@ -25338,7 +25338,7 @@
         <v>9503</v>
       </c>
       <c r="B192" t="n">
-        <v>145036</v>
+        <v>176322</v>
       </c>
       <c r="C192" t="s">
         <v>1367</v>
@@ -25409,7 +25409,7 @@
         <v>9503</v>
       </c>
       <c r="B193" t="n">
-        <v>145037</v>
+        <v>176323</v>
       </c>
       <c r="C193" t="s">
         <v>1372</v>
@@ -25480,7 +25480,7 @@
         <v>9503</v>
       </c>
       <c r="B194" t="n">
-        <v>145038</v>
+        <v>176324</v>
       </c>
       <c r="C194" t="s">
         <v>1377</v>
@@ -25541,7 +25541,7 @@
         <v>9503</v>
       </c>
       <c r="B195" t="n">
-        <v>145039</v>
+        <v>176325</v>
       </c>
       <c r="C195" t="s">
         <v>1384</v>
@@ -25612,7 +25612,7 @@
         <v>9503</v>
       </c>
       <c r="B196" t="n">
-        <v>145040</v>
+        <v>176326</v>
       </c>
       <c r="C196" t="s">
         <v>1389</v>
@@ -25673,7 +25673,7 @@
         <v>9503</v>
       </c>
       <c r="B197" t="n">
-        <v>145041</v>
+        <v>176327</v>
       </c>
       <c r="C197" t="s">
         <v>1395</v>
@@ -25744,7 +25744,7 @@
         <v>9503</v>
       </c>
       <c r="B198" t="n">
-        <v>145042</v>
+        <v>176328</v>
       </c>
       <c r="C198" t="s">
         <v>1401</v>
@@ -25941,7 +25941,7 @@
         <v>9503</v>
       </c>
       <c r="B201" t="n">
-        <v>145043</v>
+        <v>176329</v>
       </c>
       <c r="C201" t="s">
         <v>1421</v>
@@ -26065,7 +26065,7 @@
         <v>9503</v>
       </c>
       <c r="B203" t="n">
-        <v>145044</v>
+        <v>176330</v>
       </c>
       <c r="C203" t="s">
         <v>1433</v>
@@ -26207,7 +26207,7 @@
         <v>9503</v>
       </c>
       <c r="B205" t="n">
-        <v>145045</v>
+        <v>176331</v>
       </c>
       <c r="C205" t="s">
         <v>1444</v>
@@ -26349,7 +26349,7 @@
         <v>9503</v>
       </c>
       <c r="B207" t="n">
-        <v>145046</v>
+        <v>176332</v>
       </c>
       <c r="C207" t="s">
         <v>1458</v>
@@ -26420,7 +26420,7 @@
         <v>9503</v>
       </c>
       <c r="B208" t="n">
-        <v>145047</v>
+        <v>176333</v>
       </c>
       <c r="C208" t="s">
         <v>1464</v>
@@ -26487,7 +26487,7 @@
         <v>9503</v>
       </c>
       <c r="B209" t="n">
-        <v>145048</v>
+        <v>176334</v>
       </c>
       <c r="C209" t="s">
         <v>1469</v>
@@ -26554,7 +26554,7 @@
         <v>9503</v>
       </c>
       <c r="B210" t="n">
-        <v>145049</v>
+        <v>176335</v>
       </c>
       <c r="C210" t="s">
         <v>1476</v>
@@ -26625,7 +26625,7 @@
         <v>9503</v>
       </c>
       <c r="B211" t="n">
-        <v>145050</v>
+        <v>176336</v>
       </c>
       <c r="C211" t="s">
         <v>1481</v>
@@ -26696,7 +26696,7 @@
         <v>9503</v>
       </c>
       <c r="B212" t="n">
-        <v>145051</v>
+        <v>176337</v>
       </c>
       <c r="C212" t="s">
         <v>1487</v>
@@ -26767,7 +26767,7 @@
         <v>9503</v>
       </c>
       <c r="B213" t="n">
-        <v>145052</v>
+        <v>176338</v>
       </c>
       <c r="C213" t="s">
         <v>1492</v>
@@ -26838,7 +26838,7 @@
         <v>9503</v>
       </c>
       <c r="B214" t="n">
-        <v>145053</v>
+        <v>176339</v>
       </c>
       <c r="C214" t="s">
         <v>1497</v>
@@ -26905,7 +26905,7 @@
         <v>9503</v>
       </c>
       <c r="B215" t="n">
-        <v>145054</v>
+        <v>176340</v>
       </c>
       <c r="C215" t="s">
         <v>1503</v>
@@ -27041,7 +27041,7 @@
         <v>9503</v>
       </c>
       <c r="B217" t="n">
-        <v>145008</v>
+        <v>144941</v>
       </c>
       <c r="C217" t="s">
         <v>1115</v>
@@ -27112,7 +27112,7 @@
         <v>9503</v>
       </c>
       <c r="B218" t="n">
-        <v>145055</v>
+        <v>176341</v>
       </c>
       <c r="C218" t="s">
         <v>1520</v>
@@ -27183,7 +27183,7 @@
         <v>9503</v>
       </c>
       <c r="B219" t="n">
-        <v>145056</v>
+        <v>176342</v>
       </c>
       <c r="C219" t="s">
         <v>1526</v>
@@ -27258,7 +27258,7 @@
         <v>9503</v>
       </c>
       <c r="B220" t="n">
-        <v>145057</v>
+        <v>176343</v>
       </c>
       <c r="C220" t="s">
         <v>1534</v>
@@ -27394,7 +27394,7 @@
         <v>9503</v>
       </c>
       <c r="B222" t="n">
-        <v>145058</v>
+        <v>176344</v>
       </c>
       <c r="C222" t="s">
         <v>1548</v>
@@ -27465,7 +27465,7 @@
         <v>9503</v>
       </c>
       <c r="B223" t="n">
-        <v>145059</v>
+        <v>176345</v>
       </c>
       <c r="C223" t="s">
         <v>1554</v>
@@ -27526,7 +27526,7 @@
         <v>9503</v>
       </c>
       <c r="B224" t="n">
-        <v>145060</v>
+        <v>176346</v>
       </c>
       <c r="C224" t="s">
         <v>1558</v>
@@ -27652,7 +27652,7 @@
         <v>9503</v>
       </c>
       <c r="B226" t="n">
-        <v>145061</v>
+        <v>176347</v>
       </c>
       <c r="C226" t="s">
         <v>1569</v>
@@ -27723,7 +27723,7 @@
         <v>9503</v>
       </c>
       <c r="B227" t="n">
-        <v>145062</v>
+        <v>176348</v>
       </c>
       <c r="C227" t="s">
         <v>1574</v>
@@ -27794,7 +27794,7 @@
         <v>9503</v>
       </c>
       <c r="B228" t="n">
-        <v>145063</v>
+        <v>176349</v>
       </c>
       <c r="C228" t="s">
         <v>1580</v>
@@ -27932,7 +27932,7 @@
         <v>9503</v>
       </c>
       <c r="B230" t="n">
-        <v>145064</v>
+        <v>176350</v>
       </c>
       <c r="C230" t="s">
         <v>1592</v>
@@ -27999,7 +27999,7 @@
         <v>9503</v>
       </c>
       <c r="B231" t="n">
-        <v>145065</v>
+        <v>176351</v>
       </c>
       <c r="C231" t="s">
         <v>1598</v>
@@ -28064,7 +28064,7 @@
         <v>9503</v>
       </c>
       <c r="B232" t="n">
-        <v>145066</v>
+        <v>176352</v>
       </c>
       <c r="C232" t="s">
         <v>1603</v>
@@ -28135,7 +28135,7 @@
         <v>9503</v>
       </c>
       <c r="B233" t="n">
-        <v>145067</v>
+        <v>176353</v>
       </c>
       <c r="C233" t="s">
         <v>1609</v>
@@ -28206,7 +28206,7 @@
         <v>9503</v>
       </c>
       <c r="B234" t="n">
-        <v>145068</v>
+        <v>176354</v>
       </c>
       <c r="C234" t="s">
         <v>1614</v>
@@ -28352,7 +28352,7 @@
         <v>9503</v>
       </c>
       <c r="B236" t="n">
-        <v>145069</v>
+        <v>176355</v>
       </c>
       <c r="C236" t="s">
         <v>1628</v>
@@ -28565,7 +28565,7 @@
         <v>9503</v>
       </c>
       <c r="B239" t="n">
-        <v>145070</v>
+        <v>176356</v>
       </c>
       <c r="C239" t="s">
         <v>1645</v>
@@ -28636,7 +28636,7 @@
         <v>9503</v>
       </c>
       <c r="B240" t="n">
-        <v>145071</v>
+        <v>176357</v>
       </c>
       <c r="C240" t="s">
         <v>1651</v>
@@ -28707,7 +28707,7 @@
         <v>9503</v>
       </c>
       <c r="B241" t="n">
-        <v>144947</v>
+        <v>144948</v>
       </c>
       <c r="C241" t="s">
         <v>572</v>
@@ -28778,7 +28778,7 @@
         <v>9503</v>
       </c>
       <c r="B242" t="n">
-        <v>145072</v>
+        <v>176358</v>
       </c>
       <c r="C242" t="s">
         <v>1662</v>
@@ -28845,7 +28845,7 @@
         <v>9503</v>
       </c>
       <c r="B243" t="n">
-        <v>145073</v>
+        <v>176359</v>
       </c>
       <c r="C243" t="s">
         <v>1669</v>
@@ -28916,7 +28916,7 @@
         <v>9503</v>
       </c>
       <c r="B244" t="n">
-        <v>145074</v>
+        <v>176360</v>
       </c>
       <c r="C244" t="s">
         <v>1675</v>
@@ -28977,7 +28977,7 @@
         <v>9503</v>
       </c>
       <c r="B245" t="n">
-        <v>145075</v>
+        <v>176361</v>
       </c>
       <c r="C245" t="s">
         <v>1681</v>
@@ -29180,7 +29180,7 @@
         <v>9503</v>
       </c>
       <c r="B248" t="n">
-        <v>145076</v>
+        <v>176362</v>
       </c>
       <c r="C248" t="s">
         <v>1698</v>
@@ -29251,7 +29251,7 @@
         <v>9503</v>
       </c>
       <c r="B249" t="n">
-        <v>145077</v>
+        <v>176363</v>
       </c>
       <c r="C249" t="s">
         <v>1705</v>
@@ -29322,7 +29322,7 @@
         <v>9503</v>
       </c>
       <c r="B250" t="n">
-        <v>145078</v>
+        <v>176364</v>
       </c>
       <c r="C250" t="s">
         <v>1711</v>
@@ -29393,7 +29393,7 @@
         <v>9503</v>
       </c>
       <c r="B251" t="n">
-        <v>145079</v>
+        <v>176365</v>
       </c>
       <c r="C251" t="s">
         <v>1716</v>
@@ -29454,7 +29454,7 @@
         <v>9503</v>
       </c>
       <c r="B252" t="n">
-        <v>145080</v>
+        <v>176366</v>
       </c>
       <c r="C252" t="s">
         <v>1724</v>
@@ -29521,7 +29521,7 @@
         <v>9503</v>
       </c>
       <c r="B253" t="n">
-        <v>145081</v>
+        <v>176367</v>
       </c>
       <c r="C253" t="s">
         <v>1730</v>
@@ -29659,7 +29659,7 @@
         <v>9503</v>
       </c>
       <c r="B255" t="n">
-        <v>145082</v>
+        <v>176368</v>
       </c>
       <c r="C255" t="s">
         <v>1744</v>
@@ -29728,7 +29728,7 @@
         <v>9503</v>
       </c>
       <c r="B256" t="n">
-        <v>145083</v>
+        <v>176369</v>
       </c>
       <c r="C256" t="s">
         <v>1753</v>
@@ -29945,7 +29945,7 @@
         <v>9503</v>
       </c>
       <c r="B259" t="n">
-        <v>145084</v>
+        <v>176370</v>
       </c>
       <c r="C259" t="s">
         <v>1774</v>
@@ -30156,7 +30156,7 @@
         <v>9503</v>
       </c>
       <c r="B262" t="n">
-        <v>145085</v>
+        <v>176371</v>
       </c>
       <c r="C262" t="s">
         <v>1794</v>
@@ -30292,7 +30292,7 @@
         <v>9503</v>
       </c>
       <c r="B264" t="n">
-        <v>145086</v>
+        <v>176372</v>
       </c>
       <c r="C264" t="s">
         <v>1807</v>
@@ -30357,7 +30357,7 @@
         <v>9503</v>
       </c>
       <c r="B265" t="n">
-        <v>145087</v>
+        <v>176373</v>
       </c>
       <c r="C265" t="s">
         <v>1816</v>
@@ -30493,7 +30493,7 @@
         <v>9503</v>
       </c>
       <c r="B267" t="n">
-        <v>145088</v>
+        <v>176374</v>
       </c>
       <c r="C267" t="s">
         <v>1831</v>
@@ -30564,7 +30564,7 @@
         <v>9503</v>
       </c>
       <c r="B268" t="n">
-        <v>145089</v>
+        <v>176375</v>
       </c>
       <c r="C268" t="s">
         <v>1837</v>
@@ -30635,7 +30635,7 @@
         <v>9503</v>
       </c>
       <c r="B269" t="n">
-        <v>145090</v>
+        <v>176376</v>
       </c>
       <c r="C269" t="s">
         <v>1843</v>
@@ -30771,7 +30771,7 @@
         <v>9503</v>
       </c>
       <c r="B271" t="n">
-        <v>145091</v>
+        <v>176377</v>
       </c>
       <c r="C271" t="s">
         <v>1854</v>
@@ -30980,7 +30980,7 @@
         <v>9503</v>
       </c>
       <c r="B274" t="n">
-        <v>145092</v>
+        <v>176378</v>
       </c>
       <c r="C274" t="s">
         <v>1873</v>
@@ -31051,7 +31051,7 @@
         <v>9503</v>
       </c>
       <c r="B275" t="n">
-        <v>145093</v>
+        <v>176379</v>
       </c>
       <c r="C275" t="s">
         <v>1879</v>
@@ -31122,7 +31122,7 @@
         <v>9503</v>
       </c>
       <c r="B276" t="n">
-        <v>145094</v>
+        <v>176380</v>
       </c>
       <c r="C276" t="s">
         <v>1885</v>
@@ -31548,7 +31548,7 @@
         <v>9503</v>
       </c>
       <c r="B282" t="n">
-        <v>145095</v>
+        <v>176381</v>
       </c>
       <c r="C282" t="s">
         <v>1921</v>
@@ -32015,7 +32015,7 @@
         <v>9503</v>
       </c>
       <c r="B289" t="n">
-        <v>145096</v>
+        <v>176382</v>
       </c>
       <c r="C289" t="s">
         <v>1964</v>
@@ -32358,7 +32358,7 @@
         <v>9503</v>
       </c>
       <c r="B294" t="n">
-        <v>145097</v>
+        <v>176383</v>
       </c>
       <c r="C294" t="s">
         <v>1998</v>
@@ -32565,7 +32565,7 @@
         <v>9503</v>
       </c>
       <c r="B297" t="n">
-        <v>145098</v>
+        <v>176384</v>
       </c>
       <c r="C297" t="s">
         <v>2017</v>
@@ -32626,7 +32626,7 @@
         <v>9503</v>
       </c>
       <c r="B298" t="n">
-        <v>145099</v>
+        <v>176385</v>
       </c>
       <c r="C298" t="s">
         <v>2024</v>
@@ -32693,7 +32693,7 @@
         <v>9503</v>
       </c>
       <c r="B299" t="n">
-        <v>145100</v>
+        <v>176386</v>
       </c>
       <c r="C299" t="s">
         <v>2031</v>
@@ -32819,7 +32819,7 @@
         <v>9503</v>
       </c>
       <c r="B301" t="n">
-        <v>145101</v>
+        <v>176387</v>
       </c>
       <c r="C301" t="s">
         <v>2044</v>
@@ -32890,7 +32890,7 @@
         <v>9503</v>
       </c>
       <c r="B302" t="n">
-        <v>145102</v>
+        <v>176388</v>
       </c>
       <c r="C302" t="s">
         <v>2048</v>
@@ -32965,7 +32965,7 @@
         <v>9503</v>
       </c>
       <c r="B303" t="n">
-        <v>145103</v>
+        <v>176389</v>
       </c>
       <c r="C303" t="s">
         <v>2057</v>
@@ -33101,7 +33101,7 @@
         <v>9503</v>
       </c>
       <c r="B305" t="n">
-        <v>145104</v>
+        <v>176390</v>
       </c>
       <c r="C305" t="s">
         <v>2071</v>
@@ -33172,7 +33172,7 @@
         <v>9503</v>
       </c>
       <c r="B306" t="n">
-        <v>145105</v>
+        <v>176391</v>
       </c>
       <c r="C306" t="s">
         <v>2076</v>
@@ -33314,7 +33314,7 @@
         <v>9503</v>
       </c>
       <c r="B308" t="n">
-        <v>145106</v>
+        <v>176392</v>
       </c>
       <c r="C308" t="s">
         <v>2088</v>
@@ -33584,7 +33584,7 @@
         <v>9503</v>
       </c>
       <c r="B312" t="n">
-        <v>145107</v>
+        <v>176393</v>
       </c>
       <c r="C312" t="s">
         <v>2113</v>
@@ -33797,7 +33797,7 @@
         <v>9503</v>
       </c>
       <c r="B315" t="n">
-        <v>145108</v>
+        <v>176394</v>
       </c>
       <c r="C315" t="s">
         <v>2131</v>
@@ -33986,7 +33986,7 @@
         <v>9503</v>
       </c>
       <c r="B318" t="n">
-        <v>145109</v>
+        <v>176395</v>
       </c>
       <c r="C318" t="s">
         <v>2150</v>
@@ -34053,7 +34053,7 @@
         <v>9503</v>
       </c>
       <c r="B319" t="n">
-        <v>145110</v>
+        <v>144993</v>
       </c>
       <c r="C319" t="s">
         <v>2156</v>
@@ -34114,7 +34114,7 @@
         <v>9503</v>
       </c>
       <c r="B320" t="n">
-        <v>145111</v>
+        <v>176396</v>
       </c>
       <c r="C320" t="s">
         <v>2161</v>
@@ -34250,7 +34250,7 @@
         <v>9503</v>
       </c>
       <c r="B322" t="n">
-        <v>145112</v>
+        <v>176397</v>
       </c>
       <c r="C322" t="s">
         <v>2173</v>
@@ -34382,7 +34382,7 @@
         <v>9503</v>
       </c>
       <c r="B324" t="n">
-        <v>145113</v>
+        <v>176398</v>
       </c>
       <c r="C324" t="s">
         <v>2186</v>
@@ -34453,7 +34453,7 @@
         <v>9503</v>
       </c>
       <c r="B325" t="n">
-        <v>145114</v>
+        <v>176399</v>
       </c>
       <c r="C325" t="s">
         <v>2192</v>
@@ -34595,7 +34595,7 @@
         <v>9503</v>
       </c>
       <c r="B327" t="n">
-        <v>145115</v>
+        <v>176400</v>
       </c>
       <c r="C327" t="s">
         <v>2203</v>
@@ -34670,7 +34670,7 @@
         <v>9503</v>
       </c>
       <c r="B328" t="n">
-        <v>145116</v>
+        <v>176401</v>
       </c>
       <c r="C328" t="s">
         <v>2212</v>
@@ -34731,7 +34731,7 @@
         <v>9503</v>
       </c>
       <c r="B329" t="n">
-        <v>145117</v>
+        <v>176402</v>
       </c>
       <c r="C329" t="s">
         <v>2219</v>
@@ -34932,7 +34932,7 @@
         <v>9503</v>
       </c>
       <c r="B332" t="n">
-        <v>145118</v>
+        <v>176403</v>
       </c>
       <c r="C332" t="s">
         <v>2240</v>
@@ -35003,7 +35003,7 @@
         <v>9503</v>
       </c>
       <c r="B333" t="n">
-        <v>145119</v>
+        <v>176404</v>
       </c>
       <c r="C333" t="s">
         <v>2246</v>
@@ -35068,7 +35068,7 @@
         <v>9503</v>
       </c>
       <c r="B334" t="n">
-        <v>145109</v>
+        <v>144993</v>
       </c>
       <c r="C334" t="s">
         <v>2156</v>
@@ -35204,7 +35204,7 @@
         <v>9503</v>
       </c>
       <c r="B336" t="n">
-        <v>145120</v>
+        <v>176405</v>
       </c>
       <c r="C336" t="s">
         <v>2263</v>
@@ -35350,7 +35350,7 @@
         <v>9503</v>
       </c>
       <c r="B338" t="n">
-        <v>145121</v>
+        <v>176406</v>
       </c>
       <c r="C338" t="s">
         <v>2278</v>
@@ -35417,7 +35417,7 @@
         <v>9503</v>
       </c>
       <c r="B339" t="n">
-        <v>145122</v>
+        <v>145055</v>
       </c>
       <c r="C339" t="s">
         <v>2285</v>
@@ -35557,7 +35557,7 @@
         <v>9503</v>
       </c>
       <c r="B341" t="n">
-        <v>145123</v>
+        <v>176407</v>
       </c>
       <c r="C341" t="s">
         <v>2300</v>
@@ -35703,7 +35703,7 @@
         <v>9503</v>
       </c>
       <c r="B343" t="n">
-        <v>145124</v>
+        <v>176408</v>
       </c>
       <c r="C343" t="s">
         <v>2313</v>
@@ -35774,7 +35774,7 @@
         <v>9503</v>
       </c>
       <c r="B344" t="n">
-        <v>145125</v>
+        <v>176409</v>
       </c>
       <c r="C344" t="s">
         <v>2320</v>
@@ -35835,7 +35835,7 @@
         <v>9503</v>
       </c>
       <c r="B345" t="n">
-        <v>145126</v>
+        <v>176410</v>
       </c>
       <c r="C345" t="s">
         <v>2326</v>
@@ -36257,7 +36257,7 @@
         <v>9503</v>
       </c>
       <c r="B351" t="n">
-        <v>145127</v>
+        <v>176411</v>
       </c>
       <c r="C351" t="s">
         <v>2363</v>
@@ -36395,7 +36395,7 @@
         <v>9503</v>
       </c>
       <c r="B353" t="n">
-        <v>145128</v>
+        <v>176412</v>
       </c>
       <c r="C353" t="s">
         <v>2373</v>
@@ -36466,7 +36466,7 @@
         <v>9503</v>
       </c>
       <c r="B354" t="n">
-        <v>145129</v>
+        <v>176413</v>
       </c>
       <c r="C354" t="s">
         <v>2379</v>
@@ -36531,7 +36531,7 @@
         <v>9503</v>
       </c>
       <c r="B355" t="n">
-        <v>145130</v>
+        <v>176414</v>
       </c>
       <c r="C355" t="s">
         <v>2386</v>
@@ -36600,7 +36600,7 @@
         <v>9503</v>
       </c>
       <c r="B356" t="n">
-        <v>145131</v>
+        <v>176415</v>
       </c>
       <c r="C356" t="s">
         <v>2396</v>
@@ -36671,7 +36671,7 @@
         <v>9503</v>
       </c>
       <c r="B357" t="n">
-        <v>145132</v>
+        <v>176416</v>
       </c>
       <c r="C357" t="s">
         <v>2402</v>
@@ -36742,7 +36742,7 @@
         <v>9503</v>
       </c>
       <c r="B358" t="n">
-        <v>145133</v>
+        <v>176417</v>
       </c>
       <c r="C358" t="s">
         <v>2408</v>
@@ -36809,7 +36809,7 @@
         <v>9503</v>
       </c>
       <c r="B359" t="n">
-        <v>145134</v>
+        <v>176418</v>
       </c>
       <c r="C359" t="s">
         <v>2416</v>
@@ -36874,7 +36874,7 @@
         <v>9503</v>
       </c>
       <c r="B360" t="n">
-        <v>145135</v>
+        <v>176419</v>
       </c>
       <c r="C360" t="s">
         <v>2423</v>
@@ -36939,7 +36939,7 @@
         <v>9503</v>
       </c>
       <c r="B361" t="n">
-        <v>145136</v>
+        <v>176420</v>
       </c>
       <c r="C361" t="s">
         <v>2430</v>
@@ -37217,7 +37217,7 @@
         <v>9503</v>
       </c>
       <c r="B365" t="n">
-        <v>145137</v>
+        <v>176421</v>
       </c>
       <c r="C365" t="s">
         <v>2459</v>
@@ -37414,7 +37414,7 @@
         <v>9503</v>
       </c>
       <c r="B368" t="n">
-        <v>145138</v>
+        <v>176422</v>
       </c>
       <c r="C368" t="s">
         <v>2479</v>
@@ -37627,7 +37627,7 @@
         <v>9503</v>
       </c>
       <c r="B371" t="n">
-        <v>145139</v>
+        <v>176423</v>
       </c>
       <c r="C371" t="s">
         <v>2497</v>
@@ -37698,7 +37698,7 @@
         <v>9503</v>
       </c>
       <c r="B372" t="n">
-        <v>145140</v>
+        <v>176424</v>
       </c>
       <c r="C372" t="s">
         <v>2503</v>
@@ -38049,7 +38049,7 @@
         <v>9503</v>
       </c>
       <c r="B377" t="n">
-        <v>145141</v>
+        <v>176425</v>
       </c>
       <c r="C377" t="s">
         <v>2534</v>
@@ -38325,7 +38325,7 @@
         <v>9503</v>
       </c>
       <c r="B381" t="n">
-        <v>145142</v>
+        <v>176426</v>
       </c>
       <c r="C381" t="s">
         <v>2558</v>
@@ -38396,7 +38396,7 @@
         <v>9503</v>
       </c>
       <c r="B382" t="n">
-        <v>145143</v>
+        <v>176427</v>
       </c>
       <c r="C382" t="s">
         <v>2564</v>
@@ -38538,7 +38538,7 @@
         <v>9503</v>
       </c>
       <c r="B384" t="n">
-        <v>145144</v>
+        <v>176428</v>
       </c>
       <c r="C384" t="s">
         <v>2576</v>
@@ -38613,7 +38613,7 @@
         <v>9503</v>
       </c>
       <c r="B385" t="n">
-        <v>145145</v>
+        <v>176429</v>
       </c>
       <c r="C385" t="s">
         <v>2585</v>
@@ -38684,7 +38684,7 @@
         <v>9503</v>
       </c>
       <c r="B386" t="n">
-        <v>145146</v>
+        <v>176430</v>
       </c>
       <c r="C386" t="s">
         <v>2591</v>
@@ -38826,7 +38826,7 @@
         <v>9503</v>
       </c>
       <c r="B388" t="n">
-        <v>145147</v>
+        <v>176431</v>
       </c>
       <c r="C388" t="s">
         <v>2602</v>
@@ -38964,7 +38964,7 @@
         <v>9503</v>
       </c>
       <c r="B390" t="n">
-        <v>145148</v>
+        <v>176432</v>
       </c>
       <c r="C390" t="s">
         <v>2614</v>
@@ -39021,7 +39021,7 @@
         <v>9503</v>
       </c>
       <c r="B391" t="n">
-        <v>145149</v>
+        <v>176433</v>
       </c>
       <c r="C391" t="s">
         <v>2621</v>
@@ -39305,7 +39305,7 @@
         <v>9503</v>
       </c>
       <c r="B395" t="n">
-        <v>145150</v>
+        <v>176434</v>
       </c>
       <c r="C395" t="s">
         <v>2644</v>
@@ -39437,7 +39437,7 @@
         <v>9503</v>
       </c>
       <c r="B397" t="n">
-        <v>145151</v>
+        <v>176435</v>
       </c>
       <c r="C397" t="s">
         <v>2659</v>
@@ -39579,7 +39579,7 @@
         <v>9503</v>
       </c>
       <c r="B399" t="n">
-        <v>145152</v>
+        <v>176436</v>
       </c>
       <c r="C399" t="s">
         <v>2672</v>
@@ -39650,7 +39650,7 @@
         <v>9503</v>
       </c>
       <c r="B400" t="n">
-        <v>145153</v>
+        <v>176437</v>
       </c>
       <c r="C400" t="s">
         <v>2678</v>
@@ -39721,7 +39721,7 @@
         <v>9503</v>
       </c>
       <c r="B401" t="n">
-        <v>145154</v>
+        <v>176438</v>
       </c>
       <c r="C401" t="s">
         <v>2685</v>
@@ -39792,7 +39792,7 @@
         <v>9503</v>
       </c>
       <c r="B402" t="n">
-        <v>145155</v>
+        <v>176439</v>
       </c>
       <c r="C402" t="s">
         <v>2692</v>
@@ -39863,7 +39863,7 @@
         <v>9503</v>
       </c>
       <c r="B403" t="n">
-        <v>145156</v>
+        <v>176440</v>
       </c>
       <c r="C403" t="s">
         <v>2698</v>
@@ -39938,7 +39938,7 @@
         <v>9503</v>
       </c>
       <c r="B404" t="n">
-        <v>145157</v>
+        <v>176441</v>
       </c>
       <c r="C404" t="s">
         <v>2707</v>
@@ -40571,7 +40571,7 @@
         <v>9503</v>
       </c>
       <c r="B413" t="n">
-        <v>145158</v>
+        <v>176442</v>
       </c>
       <c r="C413" t="s">
         <v>2764</v>
@@ -40642,7 +40642,7 @@
         <v>9503</v>
       </c>
       <c r="B414" t="n">
-        <v>145159</v>
+        <v>176443</v>
       </c>
       <c r="C414" t="s">
         <v>2771</v>
@@ -40859,7 +40859,7 @@
         <v>9503</v>
       </c>
       <c r="B417" t="n">
-        <v>145160</v>
+        <v>176444</v>
       </c>
       <c r="C417" t="s">
         <v>2791</v>
@@ -41001,7 +41001,7 @@
         <v>9503</v>
       </c>
       <c r="B419" t="n">
-        <v>145161</v>
+        <v>176445</v>
       </c>
       <c r="C419" t="s">
         <v>2804</v>
@@ -41143,7 +41143,7 @@
         <v>9503</v>
       </c>
       <c r="B421" t="n">
-        <v>145162</v>
+        <v>176446</v>
       </c>
       <c r="C421" t="s">
         <v>2815</v>
@@ -41275,7 +41275,7 @@
         <v>9503</v>
       </c>
       <c r="B423" t="n">
-        <v>145163</v>
+        <v>176447</v>
       </c>
       <c r="C423" t="s">
         <v>2828</v>
@@ -41407,7 +41407,7 @@
         <v>9503</v>
       </c>
       <c r="B425" t="n">
-        <v>145164</v>
+        <v>176448</v>
       </c>
       <c r="C425" t="s">
         <v>2842</v>
@@ -41478,7 +41478,7 @@
         <v>9503</v>
       </c>
       <c r="B426" t="n">
-        <v>145165</v>
+        <v>176449</v>
       </c>
       <c r="C426" t="s">
         <v>2848</v>
@@ -41620,7 +41620,7 @@
         <v>9503</v>
       </c>
       <c r="B428" t="n">
-        <v>145166</v>
+        <v>176450</v>
       </c>
       <c r="C428" t="s">
         <v>2859</v>
@@ -41833,7 +41833,7 @@
         <v>9503</v>
       </c>
       <c r="B431" t="n">
-        <v>145167</v>
+        <v>176451</v>
       </c>
       <c r="C431" t="s">
         <v>2879</v>
@@ -41904,7 +41904,7 @@
         <v>9503</v>
       </c>
       <c r="B432" t="n">
-        <v>145168</v>
+        <v>176452</v>
       </c>
       <c r="C432" t="s">
         <v>2885</v>
@@ -42046,7 +42046,7 @@
         <v>9503</v>
       </c>
       <c r="B434" t="n">
-        <v>145169</v>
+        <v>176453</v>
       </c>
       <c r="C434" t="s">
         <v>2896</v>
@@ -42188,7 +42188,7 @@
         <v>9503</v>
       </c>
       <c r="B436" t="n">
-        <v>145170</v>
+        <v>176454</v>
       </c>
       <c r="C436" t="s">
         <v>2908</v>
@@ -42330,7 +42330,7 @@
         <v>9503</v>
       </c>
       <c r="B438" t="n">
-        <v>145171</v>
+        <v>176455</v>
       </c>
       <c r="C438" t="s">
         <v>2922</v>
@@ -42397,7 +42397,7 @@
         <v>9503</v>
       </c>
       <c r="B439" t="n">
-        <v>145172</v>
+        <v>176456</v>
       </c>
       <c r="C439" t="s">
         <v>2928</v>
@@ -42610,7 +42610,7 @@
         <v>9503</v>
       </c>
       <c r="B442" t="n">
-        <v>145173</v>
+        <v>176457</v>
       </c>
       <c r="C442" t="s">
         <v>2947</v>
@@ -42819,7 +42819,7 @@
         <v>9503</v>
       </c>
       <c r="B445" t="n">
-        <v>145174</v>
+        <v>176458</v>
       </c>
       <c r="C445" t="s">
         <v>2965</v>
@@ -42890,7 +42890,7 @@
         <v>9503</v>
       </c>
       <c r="B446" t="n">
-        <v>145175</v>
+        <v>176459</v>
       </c>
       <c r="C446" t="s">
         <v>2970</v>
@@ -43032,7 +43032,7 @@
         <v>9503</v>
       </c>
       <c r="B448" t="n">
-        <v>145176</v>
+        <v>176460</v>
       </c>
       <c r="C448" t="s">
         <v>2982</v>
@@ -43103,7 +43103,7 @@
         <v>9503</v>
       </c>
       <c r="B449" t="n">
-        <v>145177</v>
+        <v>176461</v>
       </c>
       <c r="C449" t="s">
         <v>2987</v>
@@ -43174,7 +43174,7 @@
         <v>9503</v>
       </c>
       <c r="B450" t="n">
-        <v>145178</v>
+        <v>176462</v>
       </c>
       <c r="C450" t="s">
         <v>2993</v>
@@ -43316,7 +43316,7 @@
         <v>9503</v>
       </c>
       <c r="B452" t="n">
-        <v>145179</v>
+        <v>176463</v>
       </c>
       <c r="C452" t="s">
         <v>3006</v>
@@ -43383,7 +43383,7 @@
         <v>9503</v>
       </c>
       <c r="B453" t="n">
-        <v>145180</v>
+        <v>176464</v>
       </c>
       <c r="C453" t="s">
         <v>3013</v>
@@ -43454,7 +43454,7 @@
         <v>9503</v>
       </c>
       <c r="B454" t="n">
-        <v>145181</v>
+        <v>176465</v>
       </c>
       <c r="C454" t="s">
         <v>3018</v>
@@ -43525,7 +43525,7 @@
         <v>9503</v>
       </c>
       <c r="B455" t="n">
-        <v>145182</v>
+        <v>176466</v>
       </c>
       <c r="C455" t="s">
         <v>3024</v>
@@ -43596,7 +43596,7 @@
         <v>9503</v>
       </c>
       <c r="B456" t="n">
-        <v>145183</v>
+        <v>176467</v>
       </c>
       <c r="C456" t="s">
         <v>3031</v>
@@ -43667,7 +43667,7 @@
         <v>9503</v>
       </c>
       <c r="B457" t="n">
-        <v>145184</v>
+        <v>176468</v>
       </c>
       <c r="C457" t="s">
         <v>3037</v>
@@ -43880,7 +43880,7 @@
         <v>9503</v>
       </c>
       <c r="B460" t="n">
-        <v>145185</v>
+        <v>176469</v>
       </c>
       <c r="C460" t="s">
         <v>3059</v>
@@ -43951,7 +43951,7 @@
         <v>9503</v>
       </c>
       <c r="B461" t="n">
-        <v>145186</v>
+        <v>176470</v>
       </c>
       <c r="C461" t="s">
         <v>3065</v>
@@ -44022,7 +44022,7 @@
         <v>9503</v>
       </c>
       <c r="B462" t="n">
-        <v>145187</v>
+        <v>176471</v>
       </c>
       <c r="C462" t="s">
         <v>3073</v>
@@ -44093,7 +44093,7 @@
         <v>9503</v>
       </c>
       <c r="B463" t="n">
-        <v>145188</v>
+        <v>176472</v>
       </c>
       <c r="C463" t="s">
         <v>3080</v>
@@ -44229,7 +44229,7 @@
         <v>9503</v>
       </c>
       <c r="B465" t="n">
-        <v>145121</v>
+        <v>145055</v>
       </c>
       <c r="C465" t="s">
         <v>2285</v>
@@ -44438,7 +44438,7 @@
         <v>9503</v>
       </c>
       <c r="B468" t="n">
-        <v>145189</v>
+        <v>176473</v>
       </c>
       <c r="C468" t="s">
         <v>3109</v>
@@ -44509,7 +44509,7 @@
         <v>9503</v>
       </c>
       <c r="B469" t="n">
-        <v>145190</v>
+        <v>176474</v>
       </c>
       <c r="C469" t="s">
         <v>3116</v>
@@ -44580,7 +44580,7 @@
         <v>9503</v>
       </c>
       <c r="B470" t="n">
-        <v>145191</v>
+        <v>176475</v>
       </c>
       <c r="C470" t="s">
         <v>3121</v>
@@ -44651,7 +44651,7 @@
         <v>9503</v>
       </c>
       <c r="B471" t="n">
-        <v>145192</v>
+        <v>176476</v>
       </c>
       <c r="C471" t="s">
         <v>3127</v>
@@ -44722,7 +44722,7 @@
         <v>9503</v>
       </c>
       <c r="B472" t="n">
-        <v>145193</v>
+        <v>176477</v>
       </c>
       <c r="C472" t="s">
         <v>3133</v>
@@ -44864,7 +44864,7 @@
         <v>9503</v>
       </c>
       <c r="B474" t="n">
-        <v>145194</v>
+        <v>176478</v>
       </c>
       <c r="C474" t="s">
         <v>3144</v>
@@ -44935,7 +44935,7 @@
         <v>9503</v>
       </c>
       <c r="B475" t="n">
-        <v>145195</v>
+        <v>176479</v>
       </c>
       <c r="C475" t="s">
         <v>3149</v>
@@ -45006,7 +45006,7 @@
         <v>9503</v>
       </c>
       <c r="B476" t="n">
-        <v>145196</v>
+        <v>176480</v>
       </c>
       <c r="C476" t="s">
         <v>3156</v>
@@ -45077,7 +45077,7 @@
         <v>9503</v>
       </c>
       <c r="B477" t="n">
-        <v>145197</v>
+        <v>176481</v>
       </c>
       <c r="C477" t="s">
         <v>3162</v>
@@ -45148,7 +45148,7 @@
         <v>9503</v>
       </c>
       <c r="B478" t="n">
-        <v>145198</v>
+        <v>176482</v>
       </c>
       <c r="C478" t="s">
         <v>3169</v>
@@ -45215,7 +45215,7 @@
         <v>9503</v>
       </c>
       <c r="B479" t="n">
-        <v>145199</v>
+        <v>176483</v>
       </c>
       <c r="C479" t="s">
         <v>3176</v>
@@ -45286,7 +45286,7 @@
         <v>9503</v>
       </c>
       <c r="B480" t="n">
-        <v>145200</v>
+        <v>176484</v>
       </c>
       <c r="C480" t="s">
         <v>3183</v>
@@ -45428,7 +45428,7 @@
         <v>9503</v>
       </c>
       <c r="B482" t="n">
-        <v>145201</v>
+        <v>176485</v>
       </c>
       <c r="C482" t="s">
         <v>3195</v>
@@ -45489,7 +45489,7 @@
         <v>9503</v>
       </c>
       <c r="B483" t="n">
-        <v>145202</v>
+        <v>176486</v>
       </c>
       <c r="C483" t="s">
         <v>3202</v>
@@ -45560,7 +45560,7 @@
         <v>9503</v>
       </c>
       <c r="B484" t="n">
-        <v>145203</v>
+        <v>176487</v>
       </c>
       <c r="C484" t="s">
         <v>3208</v>
@@ -45635,7 +45635,7 @@
         <v>9503</v>
       </c>
       <c r="B485" t="n">
-        <v>145204</v>
+        <v>176488</v>
       </c>
       <c r="C485" t="s">
         <v>3217</v>
@@ -45777,7 +45777,7 @@
         <v>9503</v>
       </c>
       <c r="B487" t="n">
-        <v>145205</v>
+        <v>176489</v>
       </c>
       <c r="C487" t="s">
         <v>3229</v>
@@ -45919,7 +45919,7 @@
         <v>9503</v>
       </c>
       <c r="B489" t="n">
-        <v>145206</v>
+        <v>176490</v>
       </c>
       <c r="C489" t="s">
         <v>3243</v>
@@ -45990,7 +45990,7 @@
         <v>9503</v>
       </c>
       <c r="B490" t="n">
-        <v>145207</v>
+        <v>176491</v>
       </c>
       <c r="C490" t="s">
         <v>3250</v>
@@ -46061,7 +46061,7 @@
         <v>9503</v>
       </c>
       <c r="B491" t="n">
-        <v>145208</v>
+        <v>176492</v>
       </c>
       <c r="C491" t="s">
         <v>3257</v>
@@ -46203,7 +46203,7 @@
         <v>9503</v>
       </c>
       <c r="B493" t="n">
-        <v>145209</v>
+        <v>176493</v>
       </c>
       <c r="C493" t="s">
         <v>3271</v>
@@ -46278,7 +46278,7 @@
         <v>9503</v>
       </c>
       <c r="B494" t="n">
-        <v>145210</v>
+        <v>176494</v>
       </c>
       <c r="C494" t="s">
         <v>3281</v>
@@ -46353,7 +46353,7 @@
         <v>9503</v>
       </c>
       <c r="B495" t="n">
-        <v>145211</v>
+        <v>176495</v>
       </c>
       <c r="C495" t="s">
         <v>3290</v>
@@ -46428,7 +46428,7 @@
         <v>9503</v>
       </c>
       <c r="B496" t="n">
-        <v>145212</v>
+        <v>176496</v>
       </c>
       <c r="C496" t="s">
         <v>3297</v>
@@ -46503,7 +46503,7 @@
         <v>9503</v>
       </c>
       <c r="B497" t="n">
-        <v>145213</v>
+        <v>176497</v>
       </c>
       <c r="C497" t="s">
         <v>3303</v>
@@ -46653,7 +46653,7 @@
         <v>9503</v>
       </c>
       <c r="B499" t="n">
-        <v>145214</v>
+        <v>176498</v>
       </c>
       <c r="C499" t="s">
         <v>3319</v>
@@ -46878,7 +46878,7 @@
         <v>9503</v>
       </c>
       <c r="B502" t="n">
-        <v>145215</v>
+        <v>176499</v>
       </c>
       <c r="C502" t="s">
         <v>3342</v>
@@ -47028,7 +47028,7 @@
         <v>9503</v>
       </c>
       <c r="B504" t="n">
-        <v>145216</v>
+        <v>176500</v>
       </c>
       <c r="C504" t="s">
         <v>3359</v>
@@ -47103,7 +47103,7 @@
         <v>9503</v>
       </c>
       <c r="B505" t="n">
-        <v>145217</v>
+        <v>176501</v>
       </c>
       <c r="C505" t="s">
         <v>3369</v>
@@ -47168,7 +47168,7 @@
         <v>9503</v>
       </c>
       <c r="B506" t="n">
-        <v>145218</v>
+        <v>176502</v>
       </c>
       <c r="C506" t="s">
         <v>3375</v>
@@ -47385,7 +47385,7 @@
         <v>9503</v>
       </c>
       <c r="B509" t="n">
-        <v>145219</v>
+        <v>176503</v>
       </c>
       <c r="C509" t="s">
         <v>3398</v>
@@ -47456,7 +47456,7 @@
         <v>9503</v>
       </c>
       <c r="B510" t="n">
-        <v>145220</v>
+        <v>176504</v>
       </c>
       <c r="C510" t="s">
         <v>3406</v>
@@ -47531,7 +47531,7 @@
         <v>9503</v>
       </c>
       <c r="B511" t="n">
-        <v>145221</v>
+        <v>176505</v>
       </c>
       <c r="C511" t="s">
         <v>3415</v>
@@ -47598,7 +47598,7 @@
         <v>9503</v>
       </c>
       <c r="B512" t="n">
-        <v>145222</v>
+        <v>176506</v>
       </c>
       <c r="C512" t="s">
         <v>3423</v>
@@ -47665,7 +47665,7 @@
         <v>9503</v>
       </c>
       <c r="B513" t="n">
-        <v>145223</v>
+        <v>176507</v>
       </c>
       <c r="C513" t="s">
         <v>3430</v>
@@ -47732,7 +47732,7 @@
         <v>9503</v>
       </c>
       <c r="B514" t="n">
-        <v>145224</v>
+        <v>176508</v>
       </c>
       <c r="C514" t="s">
         <v>3437</v>
@@ -47866,7 +47866,7 @@
         <v>9503</v>
       </c>
       <c r="B516" t="n">
-        <v>145225</v>
+        <v>176509</v>
       </c>
       <c r="C516" t="s">
         <v>3450</v>
@@ -47933,7 +47933,7 @@
         <v>9503</v>
       </c>
       <c r="B517" t="n">
-        <v>145226</v>
+        <v>176510</v>
       </c>
       <c r="C517" t="s">
         <v>3456</v>
@@ -48000,7 +48000,7 @@
         <v>9503</v>
       </c>
       <c r="B518" t="n">
-        <v>145227</v>
+        <v>176511</v>
       </c>
       <c r="C518" t="s">
         <v>3464</v>
@@ -48067,7 +48067,7 @@
         <v>9503</v>
       </c>
       <c r="B519" t="n">
-        <v>145228</v>
+        <v>176512</v>
       </c>
       <c r="C519" t="s">
         <v>3471</v>
@@ -48207,7 +48207,7 @@
         <v>9503</v>
       </c>
       <c r="B521" t="n">
-        <v>145229</v>
+        <v>176513</v>
       </c>
       <c r="C521" t="s">
         <v>3485</v>
@@ -48278,7 +48278,7 @@
         <v>9503</v>
       </c>
       <c r="B522" t="n">
-        <v>145230</v>
+        <v>176514</v>
       </c>
       <c r="C522" t="s">
         <v>3493</v>
@@ -48349,7 +48349,7 @@
         <v>9503</v>
       </c>
       <c r="B523" t="n">
-        <v>145231</v>
+        <v>176515</v>
       </c>
       <c r="C523" t="s">
         <v>3500</v>
@@ -48420,7 +48420,7 @@
         <v>9503</v>
       </c>
       <c r="B524" t="n">
-        <v>145232</v>
+        <v>176516</v>
       </c>
       <c r="C524" t="s">
         <v>3505</v>
@@ -48491,7 +48491,7 @@
         <v>9503</v>
       </c>
       <c r="B525" t="n">
-        <v>145233</v>
+        <v>176517</v>
       </c>
       <c r="C525" t="s">
         <v>3513</v>
@@ -48552,7 +48552,7 @@
         <v>9503</v>
       </c>
       <c r="B526" t="n">
-        <v>145234</v>
+        <v>176518</v>
       </c>
       <c r="C526" t="s">
         <v>3520</v>
@@ -48623,7 +48623,7 @@
         <v>9503</v>
       </c>
       <c r="B527" t="n">
-        <v>145235</v>
+        <v>176519</v>
       </c>
       <c r="C527" t="s">
         <v>3526</v>
@@ -48694,7 +48694,7 @@
         <v>9503</v>
       </c>
       <c r="B528" t="n">
-        <v>145236</v>
+        <v>176520</v>
       </c>
       <c r="C528" t="s">
         <v>3533</v>
@@ -48765,7 +48765,7 @@
         <v>9503</v>
       </c>
       <c r="B529" t="n">
-        <v>145237</v>
+        <v>176521</v>
       </c>
       <c r="C529" t="s">
         <v>3539</v>
@@ -48893,7 +48893,7 @@
         <v>9503</v>
       </c>
       <c r="B531" t="n">
-        <v>145238</v>
+        <v>176522</v>
       </c>
       <c r="C531" t="s">
         <v>3553</v>
@@ -48964,7 +48964,7 @@
         <v>9503</v>
       </c>
       <c r="B532" t="n">
-        <v>145239</v>
+        <v>176523</v>
       </c>
       <c r="C532" t="s">
         <v>3560</v>
@@ -49031,7 +49031,7 @@
         <v>9503</v>
       </c>
       <c r="B533" t="n">
-        <v>145240</v>
+        <v>176524</v>
       </c>
       <c r="C533" t="s">
         <v>3567</v>
@@ -49173,7 +49173,7 @@
         <v>9503</v>
       </c>
       <c r="B535" t="n">
-        <v>145241</v>
+        <v>176525</v>
       </c>
       <c r="C535" t="s">
         <v>3580</v>
@@ -49244,7 +49244,7 @@
         <v>9503</v>
       </c>
       <c r="B536" t="n">
-        <v>145242</v>
+        <v>176526</v>
       </c>
       <c r="C536" t="s">
         <v>3587</v>
@@ -49386,7 +49386,7 @@
         <v>9503</v>
       </c>
       <c r="B538" t="n">
-        <v>145243</v>
+        <v>176527</v>
       </c>
       <c r="C538" t="s">
         <v>3602</v>
@@ -49457,7 +49457,7 @@
         <v>9503</v>
       </c>
       <c r="B539" t="n">
-        <v>145244</v>
+        <v>176528</v>
       </c>
       <c r="C539" t="s">
         <v>3609</v>
@@ -49528,7 +49528,7 @@
         <v>9503</v>
       </c>
       <c r="B540" t="n">
-        <v>145245</v>
+        <v>176529</v>
       </c>
       <c r="C540" t="s">
         <v>3616</v>
@@ -49599,7 +49599,7 @@
         <v>9503</v>
       </c>
       <c r="B541" t="n">
-        <v>145246</v>
+        <v>176530</v>
       </c>
       <c r="C541" t="s">
         <v>3622</v>
@@ -49670,7 +49670,7 @@
         <v>9503</v>
       </c>
       <c r="B542" t="n">
-        <v>145247</v>
+        <v>176531</v>
       </c>
       <c r="C542" t="s">
         <v>3629</v>
@@ -49731,7 +49731,7 @@
         <v>9503</v>
       </c>
       <c r="B543" t="n">
-        <v>145248</v>
+        <v>176532</v>
       </c>
       <c r="C543" t="s">
         <v>3636</v>
@@ -49802,7 +49802,7 @@
         <v>9503</v>
       </c>
       <c r="B544" t="n">
-        <v>145249</v>
+        <v>176533</v>
       </c>
       <c r="C544" t="s">
         <v>3642</v>
@@ -49873,7 +49873,7 @@
         <v>9503</v>
       </c>
       <c r="B545" t="n">
-        <v>145250</v>
+        <v>176534</v>
       </c>
       <c r="C545" t="s">
         <v>3650</v>
@@ -50011,7 +50011,7 @@
         <v>9503</v>
       </c>
       <c r="B547" t="n">
-        <v>145251</v>
+        <v>176535</v>
       </c>
       <c r="C547" t="s">
         <v>3663</v>
@@ -50082,7 +50082,7 @@
         <v>9503</v>
       </c>
       <c r="B548" t="n">
-        <v>145252</v>
+        <v>176536</v>
       </c>
       <c r="C548" t="s">
         <v>3671</v>
@@ -50153,7 +50153,7 @@
         <v>9503</v>
       </c>
       <c r="B549" t="n">
-        <v>145253</v>
+        <v>176537</v>
       </c>
       <c r="C549" t="s">
         <v>3679</v>
@@ -50224,7 +50224,7 @@
         <v>9503</v>
       </c>
       <c r="B550" t="n">
-        <v>145254</v>
+        <v>176538</v>
       </c>
       <c r="C550" t="s">
         <v>3686</v>
@@ -50295,7 +50295,7 @@
         <v>9503</v>
       </c>
       <c r="B551" t="n">
-        <v>145255</v>
+        <v>176539</v>
       </c>
       <c r="C551" t="s">
         <v>3693</v>
@@ -50352,7 +50352,7 @@
         <v>9503</v>
       </c>
       <c r="B552" t="n">
-        <v>145256</v>
+        <v>176540</v>
       </c>
       <c r="C552" t="s">
         <v>3699</v>
@@ -50423,7 +50423,7 @@
         <v>9503</v>
       </c>
       <c r="B553" t="n">
-        <v>145257</v>
+        <v>176541</v>
       </c>
       <c r="C553" t="s">
         <v>3707</v>
@@ -50494,7 +50494,7 @@
         <v>9503</v>
       </c>
       <c r="B554" t="n">
-        <v>145258</v>
+        <v>176542</v>
       </c>
       <c r="C554" t="s">
         <v>3714</v>
@@ -50608,7 +50608,7 @@
         <v>9503</v>
       </c>
       <c r="B556" t="n">
-        <v>145259</v>
+        <v>176543</v>
       </c>
       <c r="C556" t="s">
         <v>3728</v>
@@ -50722,7 +50722,7 @@
         <v>9503</v>
       </c>
       <c r="B558" t="n">
-        <v>145260</v>
+        <v>176544</v>
       </c>
       <c r="C558" t="s">
         <v>3739</v>
